--- a/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>000628</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>大成高新技术产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>009069</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>大成睿鑫股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>18.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>88.25</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>008271</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>大成优势企业混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.13</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000628</t>
+          <t>008871</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成高新技术产业股票A</t>
+          <t>大成睿裕六个月持有期股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005770</t>
+          <t>011066</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
+          <t>大成高新技术产业股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011066</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成高新技术产业股票C</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008871</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票A</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.07</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008872</t>
+          <t>166019</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票C</t>
+          <t>中欧价值智选回报混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009069</t>
+          <t>009070</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成睿鑫股票A</t>
+          <t>大成睿鑫股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>82.40</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>5.92</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009070</t>
+          <t>008272</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成睿鑫股票C</t>
+          <t>大成优势企业混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82.40</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -866,15 +1006,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>99.22</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>58.31</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008271</t>
+          <t>008872</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成优势企业混合A</t>
+          <t>大成睿裕六个月持有期股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008272</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成优势企业混合C</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>000628</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>大成高新技术产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>22.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005770</t>
+          <t>009069</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
+          <t>大成睿鑫股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0864</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000628</t>
+          <t>160910</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成高新技术产业股票A</t>
+          <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.62</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011066</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成高新技术产业股票C</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.62</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>008271</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>大成优势企业混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>67.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>011066</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>大成高新技术产业股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>67.28</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160910</t>
+          <t>008871</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成创新成长混合(LOF)</t>
+          <t>大成睿裕六个月持有期股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>009070</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成国企改革灵活配置混合</t>
+          <t>大成睿鑫股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008871</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票A</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008872</t>
+          <t>008272</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票C</t>
+          <t>大成优势企业混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009069</t>
+          <t>002258</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成睿鑫股票A</t>
+          <t>大成国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009070</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成睿鑫股票C</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008271</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成优势企业混合A</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008272</t>
+          <t>008872</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大成优势企业混合C</t>
+          <t>大成睿裕六个月持有期股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.51</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>56.92</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0088</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0828</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5161</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005168</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银新征程定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2740,4 +2741,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3519,4 +3520,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3528,7 +3529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,17 +3540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3559,14 +3580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.74</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3575,14 +3618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.119999999999999</v>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3591,14 +3656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.97</v>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3607,13 +3694,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0141</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5885</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4231,7 +4232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4242,17 +4243,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4262,14 +4283,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.66</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4278,14 +4321,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.74</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4294,14 +4359,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.119999999999999</v>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7958</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4310,14 +4397,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.97</v>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4326,13 +4435,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5048,7 +5049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5059,17 +5060,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5079,14 +5100,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.710000000000001</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5095,14 +5138,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.66</v>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5111,14 +5176,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.74</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5127,14 +5214,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.119999999999999</v>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6840</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5143,14 +5252,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.97</v>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5159,13 +5290,449 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>6.81</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>8.710000000000001</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>13.66</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>6.74</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>9.119999999999999</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>5.97</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.26</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6696</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016246</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1965,7 +2608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2667,7 +3310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3445,7 +4088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4375,7 +5018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5039,7 +5682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002884-凌霄泵业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>5.85</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>6.81</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>8.710000000000001</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>13.66</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>6.74</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>9.119999999999999</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>5.97</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.26</v>
       </c>
     </row>
@@ -616,7 +633,1411 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013853</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015780</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015781</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1242,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +3213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2608,7 +4029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3310,7 +4731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4088,7 +5509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5018,7 +6439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5680,706 +7101,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000628</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6799</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0934</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7642</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008271</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成优势企业混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3857</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2356</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011066</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2001</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>63.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1990</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1691</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1600</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1600</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0682</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008272</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成优势企业混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0383</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>512590</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浦银安盛中证高股息精选ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>10.07</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>